--- a/StructureDefinition-TumorDiagnose.xlsx
+++ b/StructureDefinition-TumorDiagnose.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-22T07:04:28+00:00</t>
+    <t>2024-05-28T11:23:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-TumorDiagnose.xlsx
+++ b/StructureDefinition-TumorDiagnose.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-28T11:23:31+00:00</t>
+    <t>2024-05-28T11:48:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-TumorDiagnose.xlsx
+++ b/StructureDefinition-TumorDiagnose.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-17T19:55:11+00:00</t>
+    <t>2024-09-18T10:41:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-TumorDiagnose.xlsx
+++ b/StructureDefinition-TumorDiagnose.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-18T10:41:35+00:00</t>
+    <t>2024-09-18T11:11:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-TumorDiagnose.xlsx
+++ b/StructureDefinition-TumorDiagnose.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-18T11:11:15+00:00</t>
+    <t>2024-10-31T11:09:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-TumorDiagnose.xlsx
+++ b/StructureDefinition-TumorDiagnose.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-31T11:09:37+00:00</t>
+    <t>2024-10-31T11:09:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-TumorDiagnose.xlsx
+++ b/StructureDefinition-TumorDiagnose.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-31T11:09:58+00:00</t>
+    <t>2024-12-02T15:35:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
